--- a/planning.xlsx
+++ b/planning.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\GLU\Jaar 2\Periode2\web extra\PaardenWebshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Pascal\Documents\Stack\School\GLU\Leerjaar 2\Periode 6\Keuzedeel\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25A0B69E-73B9-4FB2-8703-72DB2D6C80BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0C9155-28D0-4373-8718-BC2A2CEBD9EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10AC5A74-859D-4AB8-9E5B-CC38EF3861DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10AC5A74-859D-4AB8-9E5B-CC38EF3861DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +60,7 @@
     <t>?</t>
   </si>
   <si>
-    <t>Waldo en Pascal zijn er vandaag niet. Door hun word er thuis gewerkt. Thijmen en ik zijn verder aan het gaan met coderen. Pascal heeft de designs afgerond.</t>
+    <t>Waldo en Pascal zijn er vandaag niet. Door hun word er thuis gewerkt. Thijmen en ik zijn verder aan het gaan met coderen. Pascal heeft de designs afgerond. Feedback moet nog in het design verwerkt worden.</t>
   </si>
 </sst>
 </file>
@@ -138,14 +138,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -465,17 +465,17 @@
   <dimension ref="A1:AP15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="3.88671875" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -498,521 +498,501 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F2" s="2"/>
+      <c r="E2" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F2" s="3"/>
       <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="2">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="L2" s="2"/>
+      <c r="K2" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L2" s="3"/>
       <c r="N2" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="2">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="R2" s="2"/>
+      <c r="Q2" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="R2" s="3"/>
       <c r="T2" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="2">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="X2" s="2"/>
+      <c r="W2" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X2" s="3"/>
       <c r="Z2" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="2">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AD2" s="2"/>
+      <c r="AC2" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AD2" s="3"/>
       <c r="AF2" t="s">
         <v>2</v>
       </c>
-      <c r="AI2" s="2">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AJ2" s="2"/>
+      <c r="AI2" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AJ2" s="3"/>
       <c r="AL2" t="s">
         <v>2</v>
       </c>
-      <c r="AO2" s="2">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AP2" s="2"/>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AO2" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AP2" s="3"/>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F3" s="2"/>
+      <c r="E3" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F3" s="3"/>
       <c r="H3" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="2">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="L3" s="2"/>
+      <c r="K3" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L3" s="3"/>
       <c r="N3" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="2">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="R3" s="2"/>
+      <c r="Q3" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="R3" s="3"/>
       <c r="T3" t="s">
         <v>3</v>
       </c>
-      <c r="W3" s="2">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="X3" s="2"/>
+      <c r="W3" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X3" s="3"/>
       <c r="Z3" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="2">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AD3" s="2"/>
+      <c r="AC3" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AD3" s="3"/>
       <c r="AF3" t="s">
         <v>3</v>
       </c>
-      <c r="AI3" s="2">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AJ3" s="2"/>
+      <c r="AI3" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AJ3" s="3"/>
       <c r="AL3" t="s">
         <v>3</v>
       </c>
-      <c r="AO3" s="2">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AP3" s="2"/>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AO3" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AP3" s="3"/>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F4" s="2"/>
+      <c r="E4" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F4" s="3"/>
       <c r="H4" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="2">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="L4" s="2"/>
+      <c r="K4" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L4" s="3"/>
       <c r="N4" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="2"/>
+      <c r="R4" s="3"/>
       <c r="T4" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="2">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="X4" s="2"/>
+      <c r="W4" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X4" s="3"/>
       <c r="Z4" t="s">
         <v>4</v>
       </c>
-      <c r="AC4" s="2">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AD4" s="2"/>
+      <c r="AC4" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AD4" s="3"/>
       <c r="AF4" t="s">
         <v>4</v>
       </c>
-      <c r="AI4" s="2">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AJ4" s="2"/>
+      <c r="AI4" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AJ4" s="3"/>
       <c r="AL4" t="s">
         <v>4</v>
       </c>
-      <c r="AO4" s="2">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AP4" s="2"/>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AO4" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AP4" s="3"/>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="2">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F5" s="2"/>
+      <c r="E5" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="H5" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="2">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="L5" s="2"/>
+      <c r="K5" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L5" s="3"/>
       <c r="N5" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="2"/>
+      <c r="R5" s="3"/>
       <c r="T5" t="s">
         <v>5</v>
       </c>
-      <c r="W5" s="2">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="X5" s="2"/>
+      <c r="W5" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X5" s="3"/>
       <c r="Z5" t="s">
         <v>5</v>
       </c>
-      <c r="AC5" s="2">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AD5" s="2"/>
+      <c r="AC5" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AD5" s="3"/>
       <c r="AF5" t="s">
         <v>5</v>
       </c>
-      <c r="AI5" s="2">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AJ5" s="2"/>
+      <c r="AI5" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AJ5" s="3"/>
       <c r="AL5" t="s">
         <v>5</v>
       </c>
-      <c r="AO5" s="2">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AP5" s="2"/>
-    </row>
-    <row r="6" spans="1:42" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="AO5" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AP5" s="3"/>
+    </row>
+    <row r="6" spans="1:42" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="H6" s="3" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="H6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="N6" s="3" t="s">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="N6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AF6:AJ12"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AL6:AP12"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="T6:X12"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="Z6:AD12"/>
     <mergeCell ref="B6:F12"/>
     <mergeCell ref="H6:L12"/>
     <mergeCell ref="E5:F5"/>
@@ -1028,6 +1008,26 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="K4:L4"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="Z6:AD12"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="T6:X12"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AL6:AP12"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AF6:AJ12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Pascal\Documents\Stack\School\GLU\Leerjaar 2\Periode 6\Keuzedeel\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0C9155-28D0-4373-8718-BC2A2CEBD9EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A6CA14-4BBF-40A9-BD34-35943BD1988D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10AC5A74-859D-4AB8-9E5B-CC38EF3861DD}"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="10">
-  <si>
-    <t>Week 37</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>Uren per week</t>
   </si>
@@ -61,6 +58,96 @@
   </si>
   <si>
     <t>Waldo en Pascal zijn er vandaag niet. Door hun word er thuis gewerkt. Thijmen en ik zijn verder aan het gaan met coderen. Pascal heeft de designs afgerond. Feedback moet nog in het design verwerkt worden.</t>
+  </si>
+  <si>
+    <t>vandaag heeft de hele groep een tussenpresentatie gehouden. Hieruit is gekomen dat er nog veel aangepast moet worden aan de website.</t>
+  </si>
+  <si>
+    <t>Week 50</t>
+  </si>
+  <si>
+    <t>Week 51</t>
+  </si>
+  <si>
+    <t>Kerstvakantie</t>
+  </si>
+  <si>
+    <t>Kerstfeest</t>
+  </si>
+  <si>
+    <t>Week 52</t>
+  </si>
+  <si>
+    <t>Week 53</t>
+  </si>
+  <si>
+    <t>Week 49</t>
+  </si>
+  <si>
+    <t>Week 48</t>
+  </si>
+  <si>
+    <t>Week 47</t>
+  </si>
+  <si>
+    <t>Feedback samenvatting</t>
+  </si>
+  <si>
+    <t>Algemeen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Subscribe in de footer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Voor testen foto op pagina drukken</t>
+  </si>
+  <si>
+    <t>bestelpagina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Opdelen in stappen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Afmeting/maat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Kruisje voor wegggooien artikelen uit basket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Shipping price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Totaalprijs onderaan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Banner moet kleiner (helft?)</t>
+  </si>
+  <si>
+    <t>Homepagina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Product highlighten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Aanbieding highlighten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Meer details voor de prijs van het Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Extra tussenruimte tussen de producten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4 categorieën over het hele menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Tekst moet even groot zijn als de knoppen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    handig voor de eindpresentatie</t>
   </si>
 </sst>
 </file>
@@ -141,11 +228,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -462,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5808B594-95B0-4AF9-94B1-94D49C13CB7D}">
-  <dimension ref="A1:AP15"/>
+  <dimension ref="A1:AP35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,509 +560,521 @@
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="3.85546875" customWidth="1"/>
     <col min="10" max="10" width="3.7109375" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AM1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F2" s="3"/>
+      <c r="E2" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F2" s="4"/>
       <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="L2" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L2" s="4"/>
       <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="R2" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="R2" s="4"/>
       <c r="T2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W2" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="X2" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X2" s="4"/>
       <c r="Z2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AD2" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AD2" s="4"/>
       <c r="AF2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AJ2" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AJ2" s="4"/>
       <c r="AL2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO2" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AP2" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="AO2" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AP2" s="4"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F3" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F3" s="4"/>
       <c r="H3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="L3" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L3" s="4"/>
       <c r="N3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="R3" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="R3" s="4"/>
       <c r="T3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W3" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="X3" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="W3" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X3" s="4"/>
       <c r="Z3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AD3" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AD3" s="4"/>
       <c r="AF3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI3" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AJ3" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AJ3" s="4"/>
       <c r="AL3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO3" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AP3" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="AO3" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AP3" s="4"/>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F4" s="4"/>
       <c r="H4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="L4" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L4" s="4"/>
       <c r="N4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R4" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" s="4"/>
       <c r="T4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W4" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="X4" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X4" s="4"/>
       <c r="Z4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AD4" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AD4" s="4"/>
       <c r="AF4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI4" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AJ4" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AJ4" s="4"/>
       <c r="AL4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO4" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AP4" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AO4" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AP4" s="4"/>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="N5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="T5" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X5" s="4"/>
+      <c r="Z5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AD5" s="4"/>
+      <c r="AF5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AJ5" s="4"/>
+      <c r="AL5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AP5" s="4"/>
+    </row>
+    <row r="6" spans="1:42" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="N5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="3" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="N6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="3"/>
-      <c r="T5" t="s">
-        <v>5</v>
-      </c>
-      <c r="W5" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="X5" s="3"/>
-      <c r="Z5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AD5" s="3"/>
-      <c r="AF5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI5" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AJ5" s="3"/>
-      <c r="AL5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO5" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AP5" s="3"/>
-    </row>
-    <row r="6" spans="1:42" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="H6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="T6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Z6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AF6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AL6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="4"/>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+    </row>
+    <row r="13" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
+      <c r="T13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="H14" s="2"/>
@@ -990,9 +1089,122 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
+      <c r="T15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="T16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T35" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AF6:AJ12"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AL6:AP12"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="T6:X12"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="Z6:AD12"/>
     <mergeCell ref="B6:F12"/>
     <mergeCell ref="H6:L12"/>
     <mergeCell ref="E5:F5"/>
@@ -1008,26 +1220,6 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="Z6:AD12"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="T6:X12"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AL6:AP12"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AF6:AJ12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Pascal\Documents\Stack\School\GLU\Leerjaar 2\Periode 6\Keuzedeel\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A6CA14-4BBF-40A9-BD34-35943BD1988D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237CF1ED-D371-4433-915C-EB47079CA9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10AC5A74-859D-4AB8-9E5B-CC38EF3861DD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t>Uren per week</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Week 52</t>
   </si>
   <si>
-    <t>Week 53</t>
-  </si>
-  <si>
     <t>Week 49</t>
   </si>
   <si>
@@ -148,6 +145,15 @@
   </si>
   <si>
     <t xml:space="preserve">    handig voor de eindpresentatie</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Vandaag is de groep begonnen met het aanpassen van de pagina met de wensen van de klant.</t>
   </si>
 </sst>
 </file>
@@ -228,11 +234,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -549,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5808B594-95B0-4AF9-94B1-94D49C13CB7D}">
-  <dimension ref="A1:AP35"/>
+  <dimension ref="A1:AV35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AK22" sqref="AK22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,15 +569,15 @@
     <col min="20" max="20" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U1" t="s">
         <v>10</v>
@@ -583,608 +589,676 @@
         <v>14</v>
       </c>
       <c r="AM1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="E2" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F2" s="3"/>
       <c r="H2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="L2" s="4"/>
+      <c r="K2" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L2" s="3"/>
       <c r="N2" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="R2" s="4"/>
+      <c r="Q2" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="R2" s="3"/>
       <c r="T2" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="X2" s="4"/>
+      <c r="W2" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X2" s="3"/>
       <c r="Z2" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AD2" s="4"/>
+      <c r="AC2" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AD2" s="3"/>
       <c r="AF2" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AJ2" s="4"/>
+      <c r="AI2" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AJ2" s="3"/>
       <c r="AL2" t="s">
         <v>1</v>
       </c>
-      <c r="AO2" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AP2" s="4"/>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO2" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AP2" s="3"/>
+      <c r="AR2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AV2" s="3"/>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F3" s="4"/>
+      <c r="E3" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F3" s="3"/>
       <c r="H3" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="L3" s="4"/>
+      <c r="K3" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L3" s="3"/>
       <c r="N3" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="R3" s="4"/>
+      <c r="Q3" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="R3" s="3"/>
       <c r="T3" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="X3" s="4"/>
+      <c r="W3" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X3" s="3"/>
       <c r="Z3" t="s">
         <v>2</v>
       </c>
-      <c r="AC3" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AD3" s="4"/>
+      <c r="AC3" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AD3" s="3"/>
       <c r="AF3" t="s">
         <v>2</v>
       </c>
-      <c r="AI3" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AJ3" s="4"/>
+      <c r="AI3" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AJ3" s="3"/>
       <c r="AL3" t="s">
         <v>2</v>
       </c>
-      <c r="AO3" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AP3" s="4"/>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO3" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AP3" s="3"/>
+      <c r="AR3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AV3" s="3"/>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F4" s="4"/>
+      <c r="E4" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F4" s="3"/>
       <c r="H4" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="L4" s="4"/>
+      <c r="K4" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L4" s="3"/>
       <c r="N4" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="4"/>
+      <c r="R4" s="3"/>
       <c r="T4" t="s">
         <v>3</v>
       </c>
-      <c r="W4" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="X4" s="4"/>
+      <c r="W4" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X4" s="3"/>
       <c r="Z4" t="s">
         <v>3</v>
       </c>
-      <c r="AC4" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AD4" s="4"/>
+      <c r="AC4" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AD4" s="3"/>
       <c r="AF4" t="s">
         <v>3</v>
       </c>
-      <c r="AI4" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AJ4" s="4"/>
+      <c r="AI4" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AJ4" s="3"/>
       <c r="AL4" t="s">
         <v>3</v>
       </c>
-      <c r="AO4" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AP4" s="4"/>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO4" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AP4" s="3"/>
+      <c r="AR4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AV4" s="3"/>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F5" s="4"/>
+      <c r="E5" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="H5" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="L5" s="4"/>
+      <c r="K5" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L5" s="3"/>
       <c r="N5" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="4"/>
+      <c r="R5" s="3"/>
       <c r="T5" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="X5" s="4"/>
+      <c r="W5" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X5" s="3"/>
       <c r="Z5" t="s">
         <v>4</v>
       </c>
-      <c r="AC5" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AD5" s="4"/>
+      <c r="AC5" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AD5" s="3"/>
       <c r="AF5" t="s">
         <v>4</v>
       </c>
-      <c r="AI5" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AJ5" s="4"/>
+      <c r="AI5" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AJ5" s="3"/>
       <c r="AL5" t="s">
         <v>4</v>
       </c>
-      <c r="AO5" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AP5" s="4"/>
-    </row>
-    <row r="6" spans="1:42" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="AO5" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AP5" s="3"/>
+      <c r="AR5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AV5" s="3"/>
+    </row>
+    <row r="6" spans="1:48" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="H6" s="3" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="H6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="N6" s="3" t="s">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="N6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="T6" s="3" t="s">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="T6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Z6" s="3" t="s">
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Z6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AF6" s="3" t="s">
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AF6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AL6" s="3" t="s">
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AL6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-    </row>
-    <row r="13" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AR6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+    </row>
+    <row r="13" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="T13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="T15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="T16" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="T16" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="40">
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AI3:AJ3"/>
     <mergeCell ref="AI4:AJ4"/>
@@ -1220,6 +1294,11 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="K4:L4"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AR6:AV12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Pascal\Documents\Stack\School\GLU\Leerjaar 2\Periode 6\Keuzedeel\Github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\GLU\Jaar 2\Periode2\web extra\PaardenWebshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A6CA14-4BBF-40A9-BD34-35943BD1988D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB47F69C-45C1-4867-B2F6-213CF1E0DB9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10AC5A74-859D-4AB8-9E5B-CC38EF3861DD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10AC5A74-859D-4AB8-9E5B-CC38EF3861DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>Week 52</t>
   </si>
   <si>
-    <t>Week 53</t>
-  </si>
-  <si>
     <t>Week 49</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t xml:space="preserve">    handig voor de eindpresentatie</t>
+  </si>
+  <si>
+    <t>Week 1</t>
   </si>
 </sst>
 </file>
@@ -228,11 +228,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -551,27 +551,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5808B594-95B0-4AF9-94B1-94D49C13CB7D}">
   <dimension ref="A1:AP35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AL13" sqref="AL13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3.88671875" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U1" t="s">
         <v>10</v>
@@ -583,628 +583,608 @@
         <v>14</v>
       </c>
       <c r="AM1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="E2" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F2" s="3"/>
       <c r="H2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="L2" s="4"/>
+      <c r="K2" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L2" s="3"/>
       <c r="N2" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="R2" s="4"/>
+      <c r="Q2" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="R2" s="3"/>
       <c r="T2" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="X2" s="4"/>
+      <c r="W2" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X2" s="3"/>
       <c r="Z2" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AD2" s="4"/>
+      <c r="AC2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="3"/>
       <c r="AF2" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AJ2" s="4"/>
+      <c r="AI2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="3"/>
       <c r="AL2" t="s">
         <v>1</v>
       </c>
-      <c r="AO2" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AP2" s="4"/>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="3"/>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F3" s="4"/>
+      <c r="E3" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F3" s="3"/>
       <c r="H3" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="L3" s="4"/>
+      <c r="K3" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L3" s="3"/>
       <c r="N3" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="R3" s="4"/>
+      <c r="Q3" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="R3" s="3"/>
       <c r="T3" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="X3" s="4"/>
+      <c r="W3" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X3" s="3"/>
       <c r="Z3" t="s">
         <v>2</v>
       </c>
-      <c r="AC3" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AD3" s="4"/>
+      <c r="AC3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="3"/>
       <c r="AF3" t="s">
         <v>2</v>
       </c>
-      <c r="AI3" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AJ3" s="4"/>
+      <c r="AI3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="3"/>
       <c r="AL3" t="s">
         <v>2</v>
       </c>
-      <c r="AO3" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AP3" s="4"/>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="3"/>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F4" s="4"/>
+      <c r="E4" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F4" s="3"/>
       <c r="H4" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="L4" s="4"/>
+      <c r="K4" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L4" s="3"/>
       <c r="N4" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="4"/>
+      <c r="R4" s="3"/>
       <c r="T4" t="s">
         <v>3</v>
       </c>
-      <c r="W4" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="X4" s="4"/>
+      <c r="W4" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X4" s="3"/>
       <c r="Z4" t="s">
         <v>3</v>
       </c>
-      <c r="AC4" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AD4" s="4"/>
+      <c r="AC4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="3"/>
       <c r="AF4" t="s">
         <v>3</v>
       </c>
-      <c r="AI4" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AJ4" s="4"/>
+      <c r="AI4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="3"/>
       <c r="AL4" t="s">
         <v>3</v>
       </c>
-      <c r="AO4" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AP4" s="4"/>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="3"/>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F5" s="4"/>
+      <c r="E5" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="H5" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="L5" s="4"/>
+      <c r="K5" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L5" s="3"/>
       <c r="N5" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="4"/>
+      <c r="R5" s="3"/>
       <c r="T5" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="X5" s="4"/>
+      <c r="W5" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X5" s="3"/>
       <c r="Z5" t="s">
         <v>4</v>
       </c>
-      <c r="AC5" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AD5" s="4"/>
+      <c r="AC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="3"/>
       <c r="AF5" t="s">
         <v>4</v>
       </c>
-      <c r="AI5" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AJ5" s="4"/>
+      <c r="AI5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="3"/>
       <c r="AL5" t="s">
         <v>4</v>
       </c>
-      <c r="AO5" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AP5" s="4"/>
-    </row>
-    <row r="6" spans="1:42" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="AO5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="3"/>
+    </row>
+    <row r="6" spans="1:42" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="H6" s="3" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="H6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="N6" s="3" t="s">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="N6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="T6" s="3" t="s">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="T6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Z6" s="3" t="s">
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Z6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AF6" s="3" t="s">
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AF6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AL6" s="3" t="s">
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AL6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-    </row>
-    <row r="13" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+    </row>
+    <row r="13" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="T13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="T15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="T16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="T16" t="s">
+    <row r="17" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T17" t="s">
+    <row r="18" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T20" t="s">
+    <row r="21" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T21" t="s">
+    <row r="22" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T22" t="s">
+    <row r="23" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T23" t="s">
+    <row r="24" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T24" t="s">
+    <row r="25" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T25" t="s">
+    <row r="26" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T26" t="s">
+    <row r="28" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T28" t="s">
+    <row r="29" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T29" t="s">
+    <row r="30" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T30" t="s">
+    <row r="31" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T31" t="s">
+    <row r="32" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T32" t="s">
+    <row r="33" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T33" t="s">
+    <row r="34" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T34" t="s">
+    <row r="35" spans="20:20" x14ac:dyDescent="0.3">
+      <c r="T35" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T35" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AF6:AJ12"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AL6:AP12"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="T6:X12"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="Z6:AD12"/>
     <mergeCell ref="B6:F12"/>
     <mergeCell ref="H6:L12"/>
     <mergeCell ref="E5:F5"/>
@@ -1220,6 +1200,26 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="K4:L4"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="Z6:AD12"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="T6:X12"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AL6:AP12"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AF6:AJ12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\GLU\Jaar 2\Periode2\web extra\PaardenWebshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB47F69C-45C1-4867-B2F6-213CF1E0DB9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D9090E-DC1B-491F-9D3E-D9DBE5B432DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10AC5A74-859D-4AB8-9E5B-CC38EF3861DD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t>Uren per week</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>We hebben vandaag de feedback verwerkt van de klant. Alles is afgerond en zijn klaar voor de eindpresentatie. Deze moet nog voorbereid worden</t>
   </si>
 </sst>
 </file>
@@ -228,11 +234,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -549,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5808B594-95B0-4AF9-94B1-94D49C13CB7D}">
-  <dimension ref="A1:AP35"/>
+  <dimension ref="A1:AW35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AL13" sqref="AL13"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AS6" sqref="AS6:AW12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,7 +569,7 @@
     <col min="20" max="20" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>17</v>
       </c>
@@ -585,488 +591,556 @@
       <c r="AM1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AT1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F2" s="3"/>
+      <c r="E2" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F2" s="4"/>
       <c r="H2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="L2" s="3"/>
+      <c r="K2" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L2" s="4"/>
       <c r="N2" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="R2" s="3"/>
+      <c r="Q2" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="R2" s="4"/>
       <c r="T2" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="X2" s="3"/>
+      <c r="W2" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X2" s="4"/>
       <c r="Z2" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="3">
+      <c r="AC2" s="4">
         <v>0</v>
       </c>
-      <c r="AD2" s="3"/>
+      <c r="AD2" s="4"/>
       <c r="AF2" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="3">
+      <c r="AI2" s="4">
         <v>0</v>
       </c>
-      <c r="AJ2" s="3"/>
+      <c r="AJ2" s="4"/>
       <c r="AL2" t="s">
         <v>1</v>
       </c>
-      <c r="AO2" s="3">
+      <c r="AO2" s="4">
         <v>0</v>
       </c>
-      <c r="AP2" s="3"/>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AP2" s="4"/>
+      <c r="AS2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AW2" s="4"/>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F3" s="3"/>
+      <c r="E3" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F3" s="4"/>
       <c r="H3" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="L3" s="3"/>
+      <c r="K3" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L3" s="4"/>
       <c r="N3" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="R3" s="3"/>
+      <c r="Q3" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="R3" s="4"/>
       <c r="T3" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="X3" s="3"/>
+      <c r="W3" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X3" s="4"/>
       <c r="Z3" t="s">
         <v>2</v>
       </c>
-      <c r="AC3" s="3">
+      <c r="AC3" s="4">
         <v>0</v>
       </c>
-      <c r="AD3" s="3"/>
+      <c r="AD3" s="4"/>
       <c r="AF3" t="s">
         <v>2</v>
       </c>
-      <c r="AI3" s="3">
+      <c r="AI3" s="4">
         <v>0</v>
       </c>
-      <c r="AJ3" s="3"/>
+      <c r="AJ3" s="4"/>
       <c r="AL3" t="s">
         <v>2</v>
       </c>
-      <c r="AO3" s="3">
+      <c r="AO3" s="4">
         <v>0</v>
       </c>
-      <c r="AP3" s="3"/>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AP3" s="4"/>
+      <c r="AS3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AW3" s="4"/>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F4" s="3"/>
+      <c r="E4" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F4" s="4"/>
       <c r="H4" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="L4" s="3"/>
+      <c r="K4" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L4" s="4"/>
       <c r="N4" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="3"/>
+      <c r="R4" s="4"/>
       <c r="T4" t="s">
         <v>3</v>
       </c>
-      <c r="W4" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="X4" s="3"/>
+      <c r="W4" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X4" s="4"/>
       <c r="Z4" t="s">
         <v>3</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AC4" s="4">
         <v>0</v>
       </c>
-      <c r="AD4" s="3"/>
+      <c r="AD4" s="4"/>
       <c r="AF4" t="s">
         <v>3</v>
       </c>
-      <c r="AI4" s="3">
+      <c r="AI4" s="4">
         <v>0</v>
       </c>
-      <c r="AJ4" s="3"/>
+      <c r="AJ4" s="4"/>
       <c r="AL4" t="s">
         <v>3</v>
       </c>
-      <c r="AO4" s="3">
+      <c r="AO4" s="4">
         <v>0</v>
       </c>
-      <c r="AP4" s="3"/>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AP4" s="4"/>
+      <c r="AS4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV4" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AW4" s="4"/>
+    </row>
+    <row r="5" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F5" s="3"/>
+      <c r="E5" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="H5" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="L5" s="3"/>
+      <c r="K5" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L5" s="4"/>
       <c r="N5" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="3"/>
+      <c r="R5" s="4"/>
       <c r="T5" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="X5" s="3"/>
+      <c r="W5" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X5" s="4"/>
       <c r="Z5" t="s">
         <v>4</v>
       </c>
-      <c r="AC5" s="3">
+      <c r="AC5" s="4">
         <v>0</v>
       </c>
-      <c r="AD5" s="3"/>
+      <c r="AD5" s="4"/>
       <c r="AF5" t="s">
         <v>4</v>
       </c>
-      <c r="AI5" s="3">
+      <c r="AI5" s="4">
         <v>0</v>
       </c>
-      <c r="AJ5" s="3"/>
+      <c r="AJ5" s="4"/>
       <c r="AL5" t="s">
         <v>4</v>
       </c>
-      <c r="AO5" s="3">
+      <c r="AO5" s="4">
         <v>0</v>
       </c>
-      <c r="AP5" s="3"/>
-    </row>
-    <row r="6" spans="1:42" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="AP5" s="4"/>
+      <c r="AS5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV5" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AW5" s="4"/>
+    </row>
+    <row r="6" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="H6" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="H6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="N6" s="4" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="N6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="T6" s="4" t="s">
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="T6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Z6" s="4" t="s">
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Z6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AF6" s="4" t="s">
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AF6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AL6" s="4" t="s">
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AL6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="4"/>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="4"/>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="4"/>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-    </row>
-    <row r="13" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AS6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3"/>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="AW11" s="3"/>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="AW12" s="3"/>
+    </row>
+    <row r="13" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1076,14 +1150,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1093,7 +1167,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
       <c r="T16" t="s">
         <v>20</v>
       </c>
@@ -1184,7 +1258,32 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="40">
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AV3:AW3"/>
+    <mergeCell ref="AV4:AW4"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AS6:AW12"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AF6:AJ12"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AL6:AP12"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="T6:X12"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="Z6:AD12"/>
     <mergeCell ref="B6:F12"/>
     <mergeCell ref="H6:L12"/>
     <mergeCell ref="E5:F5"/>
@@ -1200,26 +1299,6 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="Z6:AD12"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="T6:X12"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AL6:AP12"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AF6:AJ12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\GLU\Jaar 2\Periode2\web extra\PaardenWebshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D9090E-DC1B-491F-9D3E-D9DBE5B432DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F150C1-5859-4BE1-894E-A73DE98B9D43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10AC5A74-859D-4AB8-9E5B-CC38EF3861DD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>Uren per week</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>We hebben vandaag de feedback verwerkt van de klant. Alles is afgerond en zijn klaar voor de eindpresentatie. Deze moet nog voorbereid worden</t>
+  </si>
+  <si>
+    <t>check</t>
   </si>
 </sst>
 </file>
@@ -234,11 +237,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -557,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5808B594-95B0-4AF9-94B1-94D49C13CB7D}">
   <dimension ref="A1:AW35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AS6" sqref="AS6:AW12"/>
+    <sheetView tabSelected="1" topLeftCell="M2" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,543 +605,543 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="E2" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F2" s="3"/>
       <c r="H2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="L2" s="4"/>
+      <c r="K2" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L2" s="3"/>
       <c r="N2" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="R2" s="4"/>
+      <c r="Q2" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="R2" s="3"/>
       <c r="T2" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="X2" s="4"/>
+      <c r="W2" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X2" s="3"/>
       <c r="Z2" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="4">
+      <c r="AC2" s="3">
         <v>0</v>
       </c>
-      <c r="AD2" s="4"/>
+      <c r="AD2" s="3"/>
       <c r="AF2" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="4">
+      <c r="AI2" s="3">
         <v>0</v>
       </c>
-      <c r="AJ2" s="4"/>
+      <c r="AJ2" s="3"/>
       <c r="AL2" t="s">
         <v>1</v>
       </c>
-      <c r="AO2" s="4">
+      <c r="AO2" s="3">
         <v>0</v>
       </c>
-      <c r="AP2" s="4"/>
+      <c r="AP2" s="3"/>
       <c r="AS2" t="s">
         <v>1</v>
       </c>
-      <c r="AV2" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AW2" s="4"/>
+      <c r="AV2" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AW2" s="3"/>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F3" s="4"/>
+      <c r="E3" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F3" s="3"/>
       <c r="H3" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="L3" s="4"/>
+      <c r="K3" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L3" s="3"/>
       <c r="N3" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="R3" s="4"/>
+      <c r="Q3" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="R3" s="3"/>
       <c r="T3" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="X3" s="4"/>
+      <c r="W3" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X3" s="3"/>
       <c r="Z3" t="s">
         <v>2</v>
       </c>
-      <c r="AC3" s="4">
+      <c r="AC3" s="3">
         <v>0</v>
       </c>
-      <c r="AD3" s="4"/>
+      <c r="AD3" s="3"/>
       <c r="AF3" t="s">
         <v>2</v>
       </c>
-      <c r="AI3" s="4">
+      <c r="AI3" s="3">
         <v>0</v>
       </c>
-      <c r="AJ3" s="4"/>
+      <c r="AJ3" s="3"/>
       <c r="AL3" t="s">
         <v>2</v>
       </c>
-      <c r="AO3" s="4">
+      <c r="AO3" s="3">
         <v>0</v>
       </c>
-      <c r="AP3" s="4"/>
+      <c r="AP3" s="3"/>
       <c r="AS3" t="s">
         <v>2</v>
       </c>
-      <c r="AV3" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AW3" s="4"/>
+      <c r="AV3" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AW3" s="3"/>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F4" s="4"/>
+      <c r="E4" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F4" s="3"/>
       <c r="H4" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="L4" s="4"/>
+      <c r="K4" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L4" s="3"/>
       <c r="N4" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="4"/>
+      <c r="R4" s="3"/>
       <c r="T4" t="s">
         <v>3</v>
       </c>
-      <c r="W4" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="X4" s="4"/>
+      <c r="W4" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X4" s="3"/>
       <c r="Z4" t="s">
         <v>3</v>
       </c>
-      <c r="AC4" s="4">
+      <c r="AC4" s="3">
         <v>0</v>
       </c>
-      <c r="AD4" s="4"/>
+      <c r="AD4" s="3"/>
       <c r="AF4" t="s">
         <v>3</v>
       </c>
-      <c r="AI4" s="4">
+      <c r="AI4" s="3">
         <v>0</v>
       </c>
-      <c r="AJ4" s="4"/>
+      <c r="AJ4" s="3"/>
       <c r="AL4" t="s">
         <v>3</v>
       </c>
-      <c r="AO4" s="4">
+      <c r="AO4" s="3">
         <v>0</v>
       </c>
-      <c r="AP4" s="4"/>
+      <c r="AP4" s="3"/>
       <c r="AS4" t="s">
         <v>3</v>
       </c>
-      <c r="AV4" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AW4" s="4"/>
+      <c r="AV4" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AW4" s="3"/>
     </row>
     <row r="5" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F5" s="4"/>
+      <c r="E5" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="H5" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="L5" s="4"/>
+      <c r="K5" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L5" s="3"/>
       <c r="N5" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="4"/>
+      <c r="R5" s="3"/>
       <c r="T5" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="X5" s="4"/>
+      <c r="W5" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X5" s="3"/>
       <c r="Z5" t="s">
         <v>4</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="AC5" s="3">
         <v>0</v>
       </c>
-      <c r="AD5" s="4"/>
+      <c r="AD5" s="3"/>
       <c r="AF5" t="s">
         <v>4</v>
       </c>
-      <c r="AI5" s="4">
+      <c r="AI5" s="3">
         <v>0</v>
       </c>
-      <c r="AJ5" s="4"/>
+      <c r="AJ5" s="3"/>
       <c r="AL5" t="s">
         <v>4</v>
       </c>
-      <c r="AO5" s="4">
+      <c r="AO5" s="3">
         <v>0</v>
       </c>
-      <c r="AP5" s="4"/>
+      <c r="AP5" s="3"/>
       <c r="AS5" t="s">
         <v>4</v>
       </c>
-      <c r="AV5" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AW5" s="4"/>
+      <c r="AV5" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AW5" s="3"/>
     </row>
     <row r="6" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="H6" s="3" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="H6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="N6" s="3" t="s">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="N6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="T6" s="3" t="s">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="T6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Z6" s="3" t="s">
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Z6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AF6" s="3" t="s">
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AF6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AL6" s="3" t="s">
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AL6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AS6" s="3" t="s">
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AS6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AT6" s="3"/>
-      <c r="AU6" s="3"/>
-      <c r="AV6" s="3"/>
-      <c r="AW6" s="3"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="3"/>
-      <c r="AW7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
-      <c r="AU9" s="3"/>
-      <c r="AV9" s="3"/>
-      <c r="AW9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-      <c r="AU10" s="3"/>
-      <c r="AV10" s="3"/>
-      <c r="AW10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
-      <c r="AU11" s="3"/>
-      <c r="AV11" s="3"/>
-      <c r="AW11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="3"/>
-      <c r="AW12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
     </row>
     <row r="13" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="2"/>
@@ -1172,118 +1175,108 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="20:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="19:20" x14ac:dyDescent="0.3">
       <c r="T17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="20:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="19:20" x14ac:dyDescent="0.3">
       <c r="T18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="20:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="19:20" x14ac:dyDescent="0.3">
       <c r="T20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="20:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="19:20" x14ac:dyDescent="0.3">
       <c r="T21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="20:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="19:20" x14ac:dyDescent="0.3">
       <c r="T22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="20:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="19:20" x14ac:dyDescent="0.3">
       <c r="T23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="20:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="19:20" x14ac:dyDescent="0.3">
       <c r="T24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="20:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="19:20" x14ac:dyDescent="0.3">
       <c r="T25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="20:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="19:20" x14ac:dyDescent="0.3">
       <c r="T26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="20:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="19:20" x14ac:dyDescent="0.3">
       <c r="T28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="20:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="19:20" x14ac:dyDescent="0.3">
+      <c r="S29" t="s">
+        <v>41</v>
+      </c>
       <c r="T29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="20:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="19:20" x14ac:dyDescent="0.3">
+      <c r="S30" t="s">
+        <v>41</v>
+      </c>
       <c r="T30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="20:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="19:20" x14ac:dyDescent="0.3">
+      <c r="S31" t="s">
+        <v>41</v>
+      </c>
       <c r="T31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="20:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="19:20" x14ac:dyDescent="0.3">
       <c r="T32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="20:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="19:20" x14ac:dyDescent="0.3">
       <c r="T33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="20:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="19:20" x14ac:dyDescent="0.3">
+      <c r="S34" t="s">
+        <v>41</v>
+      </c>
       <c r="T34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="20:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="19:20" x14ac:dyDescent="0.3">
+      <c r="S35" t="s">
+        <v>41</v>
+      </c>
       <c r="T35" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AV3:AW3"/>
-    <mergeCell ref="AV4:AW4"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="AS6:AW12"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AF6:AJ12"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AL6:AP12"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="T6:X12"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="Z6:AD12"/>
     <mergeCell ref="B6:F12"/>
     <mergeCell ref="H6:L12"/>
     <mergeCell ref="E5:F5"/>
@@ -1299,6 +1292,31 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="K4:L4"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="Z6:AD12"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="T6:X12"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AL6:AP12"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AF6:AJ12"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AV3:AW3"/>
+    <mergeCell ref="AV4:AW4"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AS6:AW12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\GLU\Jaar 2\Periode2\web extra\PaardenWebshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal\Documents\GitHub\PaardenWebshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F150C1-5859-4BE1-894E-A73DE98B9D43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4E6EC6-A1B3-45BB-89C6-B603DBA5C24C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10AC5A74-859D-4AB8-9E5B-CC38EF3861DD}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{10AC5A74-859D-4AB8-9E5B-CC38EF3861DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
   <si>
     <t>Uren per week</t>
   </si>
@@ -153,10 +147,16 @@
     <t>Week 2</t>
   </si>
   <si>
-    <t>We hebben vandaag de feedback verwerkt van de klant. Alles is afgerond en zijn klaar voor de eindpresentatie. Deze moet nog voorbereid worden</t>
-  </si>
-  <si>
     <t>check</t>
+  </si>
+  <si>
+    <t>We hebben vandaag gewerkt aan de bestanden die nodig voor de portfolio. Tevens zijn de laatse aanpassingen gedaan aan de website voor de eindpresentatie.</t>
+  </si>
+  <si>
+    <t>We hebben vandaag de feedback verwerkt van de klant. Alles is afgerond en zijn klaar voor de eindpresentatie. Deze moet nog voorbereid worden.</t>
+  </si>
+  <si>
+    <t>De hele groep heeft de eindpresentatie gehouden. Deze werd positief ontvangen. Vandaag is ook de portfoliomap deadline. Alles is ingeleverd.</t>
   </si>
 </sst>
 </file>
@@ -237,11 +237,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -558,21 +558,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5808B594-95B0-4AF9-94B1-94D49C13CB7D}">
-  <dimension ref="A1:AW35"/>
+  <dimension ref="A1:BI35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M2" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+    <sheetView tabSelected="1" topLeftCell="M14" workbookViewId="0">
+      <selection activeCell="AZ15" sqref="AZ14:AZ15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.88671875" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" customWidth="1"/>
-    <col min="20" max="20" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>17</v>
       </c>
@@ -598,552 +598,682 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:61" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F2" s="3"/>
+      <c r="E2" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F2" s="4"/>
       <c r="H2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="L2" s="3"/>
+      <c r="K2" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L2" s="4"/>
       <c r="N2" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="R2" s="3"/>
+      <c r="Q2" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="R2" s="4"/>
       <c r="T2" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="X2" s="3"/>
+      <c r="W2" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X2" s="4"/>
       <c r="Z2" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="3">
+      <c r="AC2" s="4">
         <v>0</v>
       </c>
-      <c r="AD2" s="3"/>
+      <c r="AD2" s="4"/>
       <c r="AF2" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="3">
+      <c r="AI2" s="4">
         <v>0</v>
       </c>
-      <c r="AJ2" s="3"/>
+      <c r="AJ2" s="4"/>
       <c r="AL2" t="s">
         <v>1</v>
       </c>
-      <c r="AO2" s="3">
+      <c r="AO2" s="4">
         <v>0</v>
       </c>
-      <c r="AP2" s="3"/>
+      <c r="AP2" s="4"/>
       <c r="AS2" t="s">
         <v>1</v>
       </c>
-      <c r="AV2" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AW2" s="3"/>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AV2" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AW2" s="4"/>
+      <c r="AY2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="BC2" s="4"/>
+      <c r="BE2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH2" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="BI2" s="4"/>
+    </row>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F3" s="3"/>
+      <c r="E3" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F3" s="4"/>
       <c r="H3" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="L3" s="3"/>
+      <c r="K3" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L3" s="4"/>
       <c r="N3" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="R3" s="3"/>
+      <c r="Q3" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="R3" s="4"/>
       <c r="T3" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="X3" s="3"/>
+      <c r="W3" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X3" s="4"/>
       <c r="Z3" t="s">
         <v>2</v>
       </c>
-      <c r="AC3" s="3">
+      <c r="AC3" s="4">
         <v>0</v>
       </c>
-      <c r="AD3" s="3"/>
+      <c r="AD3" s="4"/>
       <c r="AF3" t="s">
         <v>2</v>
       </c>
-      <c r="AI3" s="3">
+      <c r="AI3" s="4">
         <v>0</v>
       </c>
-      <c r="AJ3" s="3"/>
+      <c r="AJ3" s="4"/>
       <c r="AL3" t="s">
         <v>2</v>
       </c>
-      <c r="AO3" s="3">
+      <c r="AO3" s="4">
         <v>0</v>
       </c>
-      <c r="AP3" s="3"/>
+      <c r="AP3" s="4"/>
       <c r="AS3" t="s">
         <v>2</v>
       </c>
-      <c r="AV3" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AW3" s="3"/>
-    </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AV3" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AW3" s="4"/>
+      <c r="AY3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB3" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="BC3" s="4"/>
+      <c r="BE3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH3" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="BI3" s="4"/>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F4" s="3"/>
+      <c r="E4" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F4" s="4"/>
       <c r="H4" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="L4" s="3"/>
+      <c r="K4" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L4" s="4"/>
       <c r="N4" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="3"/>
+      <c r="R4" s="4"/>
       <c r="T4" t="s">
         <v>3</v>
       </c>
-      <c r="W4" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="X4" s="3"/>
+      <c r="W4" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X4" s="4"/>
       <c r="Z4" t="s">
         <v>3</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AC4" s="4">
         <v>0</v>
       </c>
-      <c r="AD4" s="3"/>
+      <c r="AD4" s="4"/>
       <c r="AF4" t="s">
         <v>3</v>
       </c>
-      <c r="AI4" s="3">
+      <c r="AI4" s="4">
         <v>0</v>
       </c>
-      <c r="AJ4" s="3"/>
+      <c r="AJ4" s="4"/>
       <c r="AL4" t="s">
         <v>3</v>
       </c>
-      <c r="AO4" s="3">
+      <c r="AO4" s="4">
         <v>0</v>
       </c>
-      <c r="AP4" s="3"/>
+      <c r="AP4" s="4"/>
       <c r="AS4" t="s">
         <v>3</v>
       </c>
-      <c r="AV4" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AW4" s="3"/>
-    </row>
-    <row r="5" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV4" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AW4" s="4"/>
+      <c r="AY4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB4" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="BC4" s="4"/>
+      <c r="BE4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH4" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="BI4" s="4"/>
+    </row>
+    <row r="5" spans="1:61" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F5" s="3"/>
+      <c r="E5" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="H5" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="L5" s="3"/>
+      <c r="K5" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L5" s="4"/>
       <c r="N5" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="3"/>
+      <c r="R5" s="4"/>
       <c r="T5" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="X5" s="3"/>
+      <c r="W5" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="X5" s="4"/>
       <c r="Z5" t="s">
         <v>4</v>
       </c>
-      <c r="AC5" s="3">
+      <c r="AC5" s="4">
         <v>0</v>
       </c>
-      <c r="AD5" s="3"/>
+      <c r="AD5" s="4"/>
       <c r="AF5" t="s">
         <v>4</v>
       </c>
-      <c r="AI5" s="3">
+      <c r="AI5" s="4">
         <v>0</v>
       </c>
-      <c r="AJ5" s="3"/>
+      <c r="AJ5" s="4"/>
       <c r="AL5" t="s">
         <v>4</v>
       </c>
-      <c r="AO5" s="3">
+      <c r="AO5" s="4">
         <v>0</v>
       </c>
-      <c r="AP5" s="3"/>
+      <c r="AP5" s="4"/>
       <c r="AS5" t="s">
         <v>4</v>
       </c>
-      <c r="AV5" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="AW5" s="3"/>
-    </row>
-    <row r="6" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="AV5" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AW5" s="4"/>
+      <c r="AY5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB5" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="BC5" s="4"/>
+      <c r="BE5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH5" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="BI5" s="4"/>
+    </row>
+    <row r="6" spans="1:61" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="H6" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="H6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="N6" s="4" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="N6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="T6" s="4" t="s">
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="T6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Z6" s="4" t="s">
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Z6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AF6" s="4" t="s">
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AF6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AL6" s="4" t="s">
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AL6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-      <c r="AS6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
-    </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-    </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-    </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="4"/>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4"/>
-    </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="4"/>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="4"/>
-      <c r="AS10" s="4"/>
-      <c r="AT10" s="4"/>
-      <c r="AU10" s="4"/>
-      <c r="AV10" s="4"/>
-      <c r="AW10" s="4"/>
-    </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="4"/>
-      <c r="AS11" s="4"/>
-      <c r="AT11" s="4"/>
-      <c r="AU11" s="4"/>
-      <c r="AV11" s="4"/>
-      <c r="AW11" s="4"/>
-    </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="4"/>
-      <c r="AU12" s="4"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="4"/>
-    </row>
-    <row r="13" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AS6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AY6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BE6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3"/>
+      <c r="BI6" s="3"/>
+    </row>
+    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
+    </row>
+    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+    </row>
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="3"/>
+      <c r="BA9" s="3"/>
+      <c r="BB9" s="3"/>
+      <c r="BC9" s="3"/>
+      <c r="BE9" s="3"/>
+      <c r="BF9" s="3"/>
+      <c r="BG9" s="3"/>
+      <c r="BH9" s="3"/>
+      <c r="BI9" s="3"/>
+    </row>
+    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="3"/>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3"/>
+      <c r="BI10" s="3"/>
+    </row>
+    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="AW11" s="3"/>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="3"/>
+      <c r="BC11" s="3"/>
+      <c r="BE11" s="3"/>
+      <c r="BF11" s="3"/>
+      <c r="BG11" s="3"/>
+      <c r="BH11" s="3"/>
+      <c r="BI11" s="3"/>
+    </row>
+    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="AW12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="3"/>
+      <c r="BC12" s="3"/>
+      <c r="BE12" s="3"/>
+      <c r="BF12" s="3"/>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3"/>
+      <c r="BI12" s="3"/>
+    </row>
+    <row r="13" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1153,14 +1283,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1170,113 +1300,148 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="T16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="19:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="19:20" x14ac:dyDescent="0.25">
       <c r="T17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="19:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="19:20" x14ac:dyDescent="0.25">
       <c r="T18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="19:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="19:20" x14ac:dyDescent="0.25">
       <c r="T20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="19:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="19:20" x14ac:dyDescent="0.25">
       <c r="T21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="19:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="19:20" x14ac:dyDescent="0.25">
       <c r="T22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="19:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="19:20" x14ac:dyDescent="0.25">
       <c r="T23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="19:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="19:20" x14ac:dyDescent="0.25">
       <c r="T24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="19:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="19:20" x14ac:dyDescent="0.25">
       <c r="T25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="19:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="19:20" x14ac:dyDescent="0.25">
       <c r="T26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="19:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="19:20" x14ac:dyDescent="0.25">
       <c r="T28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="19:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="19:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="19:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="19:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="19:20" x14ac:dyDescent="0.25">
       <c r="T32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="19:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="19:20" x14ac:dyDescent="0.25">
       <c r="T33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="19:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="19:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T35" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="50">
+    <mergeCell ref="BH2:BI2"/>
+    <mergeCell ref="BH3:BI3"/>
+    <mergeCell ref="BH4:BI4"/>
+    <mergeCell ref="BH5:BI5"/>
+    <mergeCell ref="BE6:BI12"/>
+    <mergeCell ref="BB2:BC2"/>
+    <mergeCell ref="BB3:BC3"/>
+    <mergeCell ref="BB4:BC4"/>
+    <mergeCell ref="BB5:BC5"/>
+    <mergeCell ref="AY6:BC12"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AV3:AW3"/>
+    <mergeCell ref="AV4:AW4"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AS6:AW12"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AF6:AJ12"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AL6:AP12"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="T6:X12"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="Z6:AD12"/>
     <mergeCell ref="B6:F12"/>
     <mergeCell ref="H6:L12"/>
     <mergeCell ref="E5:F5"/>
@@ -1292,31 +1457,6 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="Z6:AD12"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="T6:X12"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AL6:AP12"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AF6:AJ12"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AV3:AW3"/>
-    <mergeCell ref="AV4:AW4"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="AS6:AW12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
